--- a/cmip6/responsible_parties/cmip6_uhh_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_uhh_responsible_parties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/models/templates_xls/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/responsible_parties/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA8D93-E539-0143-AC4B-6DF10DC868EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -1691,7 +1691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1746,7 +1746,7 @@
       <c r="D5" s="6"/>
       <c r="E5" s="7"/>
     </row>
-    <row r="6" spans="1:5" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="409.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1800,8 +1800,8 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2130,8 +2130,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/cmip6/responsible_parties/cmip6_uhh_responsible_parties.xlsx
+++ b/cmip6/responsible_parties/cmip6_uhh_responsible_parties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ipsl/Engineering/esdoc/bash/cmip6/responsible_parties/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u237002/Dropbox/Hacking/sat/cmip6/es-doc-institutional/uhh/cmip6/responsible_parties/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{237F9912-A739-AB48-BDD0-24089904ED3C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B63080-2966-544A-A212-EB627DED8A87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25320" windowHeight="18220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16660" yWindow="460" windowWidth="28660" windowHeight="20300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Frontis" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
   <si>
     <t>ES-DOC CMIP6 Model Responsible Parties</t>
   </si>
@@ -144,12 +144,63 @@
   <si>
     <t>ORCID ID</t>
   </si>
+  <si>
+    <t>BRATH-MANFRED</t>
+  </si>
+  <si>
+    <t>Manfred Brath</t>
+  </si>
+  <si>
+    <t>Universität Hamburg
+Meteorological Institute
+Bundesstr. 55
+20146 Hamburg</t>
+  </si>
+  <si>
+    <t>manfred.brath@uni-hamburg.de</t>
+  </si>
+  <si>
+    <t>https://www.mi.uni-hamburg.de/arbeitsgruppen/strahlung-und-fernerkundung/personen/brath-manfred.html</t>
+  </si>
+  <si>
+    <t>BUEHLER-STEFAN</t>
+  </si>
+  <si>
+    <t>Stefan A. Buehler</t>
+  </si>
+  <si>
+    <t>stefan.buehler@uni-hamburg.de</t>
+  </si>
+  <si>
+    <t>https://www.mi.uni-hamburg.de/arbeitsgruppen/strahlung-und-fernerkundung/personen/buehler-stefan.html</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0001-6389-1160</t>
+  </si>
+  <si>
+    <t>LEMKE-OLIVER</t>
+  </si>
+  <si>
+    <t>Oliver Lemke</t>
+  </si>
+  <si>
+    <t>oliver.lemke@uni-hamburg.de</t>
+  </si>
+  <si>
+    <t>https://www.mi.uni-hamburg.de/arbeitsgruppen/strahlung-und-fernerkundung/personen/lemke-oliver.html</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0003-4898-3811</t>
+  </si>
+  <si>
+    <t>https://orcid.org/0000-0002-4823-2084</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -219,6 +270,18 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -403,12 +466,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -529,8 +595,15 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1691,7 +1764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1800,8 +1875,8 @@
   </sheetPr>
   <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2130,8 +2205,8 @@
   </sheetPr>
   <dimension ref="A1:IV30"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2139,7 +2214,7 @@
     <col min="1" max="1" width="25.83203125" style="36" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="36" customWidth="1"/>
     <col min="3" max="4" width="29.83203125" style="36" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" style="36" customWidth="1"/>
+    <col min="5" max="5" width="28.5" style="36" customWidth="1"/>
     <col min="6" max="7" width="26.5" style="36" customWidth="1"/>
     <col min="8" max="256" width="16.33203125" style="36" customWidth="1"/>
   </cols>
@@ -2178,32 +2253,74 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-    </row>
-    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-    </row>
-    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
+    <row r="3" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="67" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="40"/>
@@ -2431,6 +2548,13 @@
       <c r="G30" s="41"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{BADDFB42-E4AD-2B47-8FAF-751EF2863FEC}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{3595F839-1DC3-EA45-90D3-AF9D15EDAA7E}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{F034291A-BCD2-9047-BA0C-D60B19C1AD83}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{EFA60DDB-B3F4-C246-A265-201DF5EEE95E}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{B7E58713-2FBA-434C-8AC8-ADD0872A0D75}"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
